--- a/603_Medisales Bangalore.xlsx
+++ b/603_Medisales Bangalore.xlsx
@@ -419,89 +419,94 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>ANUGRAHA DRUG AGENCIES[KA0008]</v>
       </c>
       <c r="B2" t="str">
         <v>603/23/T1-1586</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>MAHALAKSHMI DISTRIBUTORS[KA0088]</v>
       </c>
       <c r="B3" t="str">
         <v>603/23/T1-1587</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E3" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>ASHOK MEDICAL AGENCIES[KA0108]</v>
       </c>
       <c r="B4" t="str">
         <v>603/23/T1-1588</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>SUPRABHAT PHARMACEUTICALS[KA0144]</v>
       </c>
       <c r="B5" t="str">
         <v>603/23/T1-1589</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>BHARTI MEDICAL AGENCIES[KA0151]</v>
       </c>
       <c r="B6" t="str">
         <v>603/23/T1-1590</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>373</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -512,14 +517,15 @@
       <c r="B7" t="str">
         <v>603/23/T1-1591</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E7" t="str">
-        <v>1495</v>
+        <v>149500</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -530,82 +536,87 @@
       <c r="B8" t="str">
         <v>603/23/T1-1592</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E8" t="str">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>JYOTHI DISTRIBUTORS[KA0219]</v>
       </c>
       <c r="B9" t="str">
         <v>603/23/T1-1593</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E9" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>SRI BHUVANESHWARI AGENCY[KA0085]</v>
       </c>
       <c r="B10" t="str">
         <v>603/23/T1-1594</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E10" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>MAHALAKSHMI DISTRIBUTORS[KA0088]</v>
       </c>
       <c r="B11" t="str">
         <v>603/23/T1-1595</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E11" t="str">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>SHRI GANESH AGENCIES[KA0169]</v>
       </c>
       <c r="B12" t="str">
         <v>603/23/T1-1596</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E12" t="str">
-        <v>44</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -616,31 +627,33 @@
       <c r="B13" t="str">
         <v>603/23/T1-1597</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E13" t="str">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>118300</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>JYOTHI DISTRIBUTORS[KA0219]</v>
       </c>
       <c r="B14" t="str">
         <v>603/23/T1-1598</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E14" t="str">
-        <v>171</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
@@ -651,14 +664,15 @@
       <c r="B15" t="str">
         <v>603/23/T1-1599</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E15" t="str">
-        <v>310</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
@@ -669,14 +683,15 @@
       <c r="B16" t="str">
         <v>603/23/T1-1600</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E16" t="str">
-        <v>1139</v>
+        <v>113900</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
@@ -687,31 +702,33 @@
       <c r="B17" t="str">
         <v>603/23/T1-1601</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E17" t="str">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>JYOTHI DISTRIBUTORS[KA0219]</v>
       </c>
       <c r="B18" t="str">
         <v>603/23/T1-1602</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E18" t="str">
-        <v>128</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -722,99 +739,105 @@
       <c r="B19" t="str">
         <v>603/23/T1-1603</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E19" t="str">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>ANUGRAHA DRUG AGENCIES[KA0008]</v>
       </c>
       <c r="B20" t="str">
         <v>603/23/T1-1604</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E20" t="str">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>UNITED PHARMACEUTICAL DISTRIBU[KA0073]</v>
       </c>
       <c r="B21" t="str">
         <v>603/23/T1-1605</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E21" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>SHOLAPURKAR BROTHERS[KA0081]</v>
       </c>
       <c r="B22" t="str">
         <v>603/23/T1-1606</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E22" t="str">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>SRI BHUVANESHWARI AGENCY[KA0085]</v>
       </c>
       <c r="B23" t="str">
         <v>603/23/T1-1607</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E23" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>VISWANATH MEDICAL AGENCIES[KA0123]</v>
       </c>
       <c r="B24" t="str">
         <v>603/23/T1-1608</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E24" t="str">
-        <v>82</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -825,133 +848,141 @@
       <c r="B25" t="str">
         <v>603/23/T1-1609</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E25" t="str">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>SHRIKANT MEDICAL AGENCIES[KA0015]</v>
       </c>
       <c r="B26" t="str">
         <v>603/23/T1-1610</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E26" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>SHRIDEVI MEDICAL DISTRIBUTORS[KA0051]</v>
       </c>
       <c r="B27" t="str">
         <v>603/23/T1-1611</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E27" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>VAIBHAV DRUG DISTRIBUTORS[KA0070]</v>
       </c>
       <c r="B28" t="str">
         <v>603/23/T1-1612</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E28" t="str">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>SRI BHUVANESHWARI AGENCY[KA0085]</v>
       </c>
       <c r="B29" t="str">
         <v>603/23/T1-1613</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E29" t="str">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>MAHALAKSHMI DISTRIBUTORS[KA0088]</v>
       </c>
       <c r="B30" t="str">
         <v>603/23/T1-1614</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E30" t="str">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>BHARTI MEDICAL AGENCIES[KA0151]</v>
       </c>
       <c r="B31" t="str">
         <v>603/23/T1-1615</v>
       </c>
-      <c r="C31" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E31" t="str">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>SHRI GANESH AGENCIES[KA0169]</v>
       </c>
       <c r="B32" t="str">
         <v>603/23/T1-1616</v>
       </c>
-      <c r="C32" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E32" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
@@ -962,31 +993,33 @@
       <c r="B33" t="str">
         <v>603/23/T1-1617</v>
       </c>
-      <c r="C33" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E33" t="str">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
         <v>GANGA DISTRIBUTORS[KA0245]</v>
       </c>
       <c r="B34" t="str">
         <v>603/23/T1-1618</v>
       </c>
-      <c r="C34" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E34" t="str">
-        <v>345</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
@@ -997,14 +1030,15 @@
       <c r="B35" t="str">
         <v>603/23/T1-1619</v>
       </c>
-      <c r="C35" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E35" t="str">
-        <v>85</v>
+        <v>8500</v>
       </c>
     </row>
   </sheetData>
